--- a/2022/SAMSUNG/Others/ROI/ROI July 2022 Mugdho Corporation.xlsx
+++ b/2022/SAMSUNG/Others/ROI/ROI July 2022 Mugdho Corporation.xlsx
@@ -422,9 +422,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1065,7 +1066,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1439,6 +1440,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2504,7 +2506,7 @@
       </c>
       <c r="D13" s="71">
         <f>Details!D75</f>
-        <v>173784</v>
+        <v>204984</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
@@ -2611,7 +2613,7 @@
       </c>
       <c r="I19" s="45">
         <f>Details!N18</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="J19" s="51"/>
       <c r="O19" s="18"/>
@@ -2643,7 +2645,7 @@
       </c>
       <c r="I21" s="47">
         <f>I19+I20</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="J21" s="51"/>
       <c r="O21" s="18"/>
@@ -2796,7 +2798,7 @@
       </c>
       <c r="I29" s="45">
         <f>Details!N28</f>
-        <v>17995</v>
+        <v>49195</v>
       </c>
       <c r="J29" s="51"/>
       <c r="O29" s="18"/>
@@ -2844,7 +2846,7 @@
       </c>
       <c r="I32" s="47">
         <f>SUM(I24:I31)</f>
-        <v>173784</v>
+        <v>204984</v>
       </c>
       <c r="J32" s="51"/>
       <c r="O32" s="18"/>
@@ -2871,7 +2873,7 @@
       </c>
       <c r="I34" s="57">
         <f>I32</f>
-        <v>173784</v>
+        <v>204984</v>
       </c>
       <c r="J34" s="51"/>
       <c r="O34" s="18"/>
@@ -2908,7 +2910,7 @@
       </c>
       <c r="I36" s="57">
         <f>I21-I34</f>
-        <v>-584</v>
+        <v>21243016</v>
       </c>
       <c r="J36" s="51"/>
       <c r="O36" s="18"/>
@@ -2938,7 +2940,7 @@
       </c>
       <c r="D38" s="99">
         <f>Details!I23</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="18"/>
@@ -2948,7 +2950,7 @@
       </c>
       <c r="I38" s="59">
         <f>I36/I16</f>
-        <v>-4.0017878377223374E-5</v>
+        <v>1.4556514223517298</v>
       </c>
       <c r="J38" s="107" t="s">
         <v>27</v>
@@ -2968,7 +2970,7 @@
       <c r="H39" s="110"/>
       <c r="I39" s="61">
         <f>(I36*12)/I16</f>
-        <v>-4.8021454052668051E-4</v>
+        <v>17.467817068220757</v>
       </c>
       <c r="J39" s="108" t="s">
         <v>28</v>
@@ -3523,8 +3525,8 @@
   </sheetPr>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3580,6 +3582,10 @@
       <c r="C5" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="H5" s="128">
+        <f>I13-I13*2.4%</f>
+        <v>20933248</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="5" t="s">
@@ -3696,7 +3702,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="15">
-        <v>7781690</v>
+        <v>21448000</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="8"/>
@@ -3728,9 +3734,7 @@
       <c r="H14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15">
-        <v>7603490</v>
-      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="41"/>
       <c r="K14" s="8"/>
       <c r="L14" s="42"/>
@@ -3760,9 +3764,7 @@
       <c r="H15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="15">
-        <v>5000</v>
-      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="41"/>
       <c r="K15" s="8"/>
       <c r="L15" s="42"/>
@@ -3795,7 +3797,7 @@
       </c>
       <c r="I16" s="48">
         <f>I13-I14-I15</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="18"/>
@@ -3861,7 +3863,7 @@
       </c>
       <c r="N18" s="45">
         <f>I16</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="O18" s="51"/>
       <c r="P18" s="18"/>
@@ -3925,7 +3927,7 @@
       </c>
       <c r="N20" s="47">
         <f>N18+N19</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="O20" s="51"/>
       <c r="P20" s="18"/>
@@ -4005,7 +4007,7 @@
       </c>
       <c r="I23" s="47">
         <f>I16+I21</f>
-        <v>173200</v>
+        <v>21448000</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="18"/>
@@ -4166,7 +4168,7 @@
       </c>
       <c r="N28" s="45">
         <f>D56</f>
-        <v>17995</v>
+        <v>49195</v>
       </c>
       <c r="O28" s="51"/>
       <c r="P28" s="18"/>
@@ -4266,7 +4268,7 @@
       </c>
       <c r="N31" s="47">
         <f>SUM(N23:N30)</f>
-        <v>173784</v>
+        <v>204984</v>
       </c>
       <c r="O31" s="51"/>
       <c r="P31" s="18"/>
@@ -4327,7 +4329,7 @@
       </c>
       <c r="N33" s="57">
         <f>N31</f>
-        <v>173784</v>
+        <v>204984</v>
       </c>
       <c r="O33" s="51"/>
       <c r="P33" s="18"/>
@@ -4388,7 +4390,7 @@
       </c>
       <c r="N35" s="57">
         <f>N20-N33</f>
-        <v>-584</v>
+        <v>21243016</v>
       </c>
       <c r="O35" s="51"/>
       <c r="P35" s="18"/>
@@ -4447,7 +4449,7 @@
       </c>
       <c r="N37" s="59">
         <f>N35/N15</f>
-        <v>-4.0017878377223374E-5</v>
+        <v>1.4556514223517298</v>
       </c>
       <c r="O37" s="60" t="s">
         <v>27</v>
@@ -4476,7 +4478,7 @@
       <c r="M38" s="110"/>
       <c r="N38" s="61">
         <f>(N35*12)/N15</f>
-        <v>-4.8021454052668051E-4</v>
+        <v>17.467817068220757</v>
       </c>
       <c r="O38" s="62" t="s">
         <v>28</v>
@@ -4925,7 +4927,7 @@
         <v>130</v>
       </c>
       <c r="D55" s="34">
-        <v>4445</v>
+        <v>35645</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="18"/>
@@ -4955,7 +4957,7 @@
       </c>
       <c r="D56" s="24">
         <f>SUM(D51:D55)</f>
-        <v>17995</v>
+        <v>49195</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="18"/>
@@ -4985,7 +4987,7 @@
       </c>
       <c r="D57" s="24">
         <f>SUM(D56,D50)</f>
-        <v>120225</v>
+        <v>151425</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="18"/>
@@ -5396,7 +5398,7 @@
       </c>
       <c r="D75" s="71">
         <f>D57+D68+D73</f>
-        <v>173784</v>
+        <v>204984</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="18"/>
